--- a/docs/excel/TNotice.xlsx
+++ b/docs/excel/TNotice.xlsx
@@ -71,10 +71,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>天天签到送元宝！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -533,21 +533,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -557,13 +557,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
